--- a/CodeList.xlsx
+++ b/CodeList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{254B3C57-A0EC-43D0-B01E-E12674456944}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{616F1470-E44C-4143-BFF4-4D3CF1797F5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -29,6 +30,33 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Print a message</t>
+  </si>
+  <si>
+    <t>Add two numbers</t>
+  </si>
+  <si>
+    <t>Divide two numbers</t>
+  </si>
+  <si>
+    <t>Arithmatic operations</t>
+  </si>
+  <si>
+    <t>Multiplication table of a number</t>
+  </si>
+  <si>
+    <t>Draw a rectangle with a user specified character, length and width</t>
+  </si>
+  <si>
+    <t>Remove a specified character from a string using its index</t>
+  </si>
+  <si>
+    <t>Swap two numbers</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -363,7 +391,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -387,40 +415,88 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/CodeList.xlsx
+++ b/CodeList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{616F1470-E44C-4143-BFF4-4D3CF1797F5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59EFC69A-3FFC-4B19-85D8-0BBD0C92123F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -57,6 +56,18 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>find the longest word in a string</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Sum of first 500 prime numbers</t>
+  </si>
+  <si>
+    <t>Return true if two integers are of opposite signs</t>
   </si>
 </sst>
 </file>
@@ -391,7 +402,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -503,15 +514,33 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/CodeList.xlsx
+++ b/CodeList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59EFC69A-3FFC-4B19-85D8-0BBD0C92123F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C73D3A90-248C-42E2-93E7-9FF3DF082BC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -58,16 +58,28 @@
     <t>Done</t>
   </si>
   <si>
-    <t>find the longest word in a string</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
     <t>Sum of first 500 prime numbers</t>
   </si>
   <si>
     <t>Return true if two integers are of opposite signs</t>
+  </si>
+  <si>
+    <t>Reverse the words of a sentence</t>
+  </si>
+  <si>
+    <t>Fibonacci - Bottom up</t>
+  </si>
+  <si>
+    <t>Fibonacci - Naïve recurssion</t>
+  </si>
+  <si>
+    <t>Fibonacci - Recurssion with memoization</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Find the longest word in a string</t>
   </si>
 </sst>
 </file>
@@ -399,19 +411,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="118.05078125" customWidth="1"/>
     <col min="3" max="3" width="23.47265625" customWidth="1"/>
+    <col min="4" max="4" width="40.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +434,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -433,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -444,7 +460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -455,7 +471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -466,7 +482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -477,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -488,7 +504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -499,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -510,57 +526,81 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
